--- a/2025-10-21/21_olbg_fixtures.xlsx
+++ b/2025-10-21/21_olbg_fixtures.xlsx
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47/49 Win Tips</t>
+          <t>47/51 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38/43 Win Tips</t>
+          <t>38/44 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37/43 Win Tips</t>
+          <t>37/44 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35/44 Win Tips</t>
+          <t>35/45 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31/38 Win Tips</t>
+          <t>31/39 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21/47 Win Tips</t>
+          <t>22/49 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21/34 Win Tips</t>
+          <t>21/35 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
